--- a/medicine/Enfance/Cavan_Scott/Cavan_Scott.xlsx
+++ b/medicine/Enfance/Cavan_Scott/Cavan_Scott.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cavan Scott, né le 17 avril 1973 à Bristol en Angleterre, est un scénariste de comics et romancier britannique de science-fiction.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,15 +553,61 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Univers Star Wars
-Série Aventures dans un monde rebelle
-Les tomes 3, 5 et 7 de cette série ont été écrits par Tom Huddleston.
+          <t>Univers Star Wars</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Aventures dans un monde rebelle</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les tomes 3, 5 et 7 de cette série ont été écrits par Tom Huddleston.
 La Fuite, Hachette Jeunesse, coll. « Bibliothèque verte », 2017 ((en) The Escape, 2016)
 Le Piège, Hachette Jeunesse, coll. « Bibliothèque verte », 2017 ((en) The Snare, 2016)
  Le Vol, Hachette Jeunesse, coll. « Bibliothèque verte », 2018 ((en) The Steal, 2016)
- Le Froid, Hachette Jeunesse, coll. « Bibliothèque verte », 2018 ((en) The Cold, 2017)
-Série La Haute République
-Phase I : La Lumière des Jedi
+ Le Froid, Hachette Jeunesse, coll. « Bibliothèque verte », 2018 ((en) The Cold, 2017)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cavan_Scott</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cavan_Scott</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Univers Star Wars</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série La Haute République</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Phase I : La Lumière des Jedi
 Roman
 L'orage gronde, Pocket, coll. « Star Wars » no 185, 2022 ((en) The Rising Storm, 2021), trad. Sandy Julien, 560 p.  (ISBN 978-2-266-32493-9)
 Comics
@@ -560,16 +620,163 @@
 La Voie de la vengeance, Pocket, coll. « Star Wars » no 201, 2024 ((en) Path of Vengeance, 2023), trad. Julien Bétan, 480 p.  (ISBN 978-2-266-34286-5)
 Comics
 (en) The High Republic 1: Balance of the Force, 2023
-(en) The High Republic 2: Battle for the Force, 2023
-Romans indépendants
-(en) Dooku: Jedi Lost, 2019
-Univers Judge Dredd
-(en) Alternative Facts, 2017
-Univers Skylanders
-Série Skylanders Spyro's Adventures
-(en) The Machine of Doom, 2012
-Série The Mask of Power
-Cette série a été publiée sous le pseudonyme Onk Beakma.
+(en) The High Republic 2: Battle for the Force, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cavan_Scott</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cavan_Scott</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Univers Star Wars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Dooku: Jedi Lost, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cavan_Scott</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cavan_Scott</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Univers Judge Dredd</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Alternative Facts, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cavan_Scott</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cavan_Scott</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Univers Skylanders</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Skylanders Spyro's Adventures</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) The Machine of Doom, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cavan_Scott</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cavan_Scott</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Univers Skylanders</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série The Mask of Power</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Cette série a été publiée sous le pseudonyme Onk Beakma.
 (en) Spyro Versus the Mega Monsters, 2013
 (en) Gill Grunt and the Curse of the Fish Master, 2013
 (en) Lightning Rod Faces the Cyclops Queen, 2014
@@ -577,22 +784,164 @@
 (en) Cynder Confronts the Weather Wizard, 2015
 (en) Stump Smash Crosses the Bone Dragon, 2016
 (en) Eruptor Meets the Nightmare King, 2015
-(en) Trigger Happy Targets the Evil Kaos, 2015
-Univers Warhammer
-Série Les Galaxies Distordues
-L'Attaque des Nécrons, Black Library, 2019 ((en) Attack of the Necron, 2019), trad. Jérôme Vessière, 256 p.  (ISBN 978-1-78030-475-5)
+(en) Trigger Happy Targets the Evil Kaos, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cavan_Scott</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cavan_Scott</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Univers Warhammer</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Série Les Galaxies Distordues</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>L'Attaque des Nécrons, Black Library, 2019 ((en) Attack of the Necron, 2019), trad. Jérôme Vessière, 256 p.  (ISBN 978-1-78030-475-5)
 Les Griffes du Génovore, Black Library, 2019 ((en) Claws of the Genestealer, 2019), trad. Jérôme Vessière, 240 p.  (ISBN 978-1-78030-502-8)
 Les Secrets des Tau, Black Library, 2020 ((en) Secrets of the Tau, 2019), trad. Jérôme Vessière, 240 p.  (ISBN 978-1-78030-516-5)
 La Guerre des Orks, Black Library, 2020 ((en) War of the Orks, 2020), trad. Jérôme Vessière, 256 p.  (ISBN 978-1-78030-531-8)
 La Peste des Nurglings, Black Library, 2021 ((en) Plague of the Nurglings, 2021), trad. Jérôme Vessière, 256 p.  (ISBN 978-1-78030-601-8)
-La Tombe des Nécrons, Black Library, 2021 ((en) Tomb of the Necron, 2021), trad. Jérôme Vessière  (ISBN 978-1-78030-447-2)
-Univers Blake's 7
-Série Big Finish
-(en) The Forgotten, 2012Coécrit avec Mark Wright.
-Univers Doctor Who
-(en) The Shining Man, 2017
-Romans indépendants
-(en) Project: Valhalla, 2005Coécrit avec Mark Wright.</t>
+La Tombe des Nécrons, Black Library, 2021 ((en) Tomb of the Necron, 2021), trad. Jérôme Vessière  (ISBN 978-1-78030-447-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cavan_Scott</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cavan_Scott</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Univers Blake's 7</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Série Big Finish</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(en) The Forgotten, 2012Coécrit avec Mark Wright.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cavan_Scott</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cavan_Scott</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Univers Doctor Who</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(en) The Shining Man, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cavan_Scott</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cavan_Scott</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(en) Project: Valhalla, 2005Coécrit avec Mark Wright.</t>
         </is>
       </c>
     </row>
